--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H2">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I2">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J2">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>198.7636988694526</v>
+        <v>217.4961492006546</v>
       </c>
       <c r="R2">
-        <v>198.7636988694526</v>
+        <v>1957.465342805892</v>
       </c>
       <c r="S2">
-        <v>0.004924839436955169</v>
+        <v>0.005242195746185776</v>
       </c>
       <c r="T2">
-        <v>0.004924839436955169</v>
+        <v>0.005242195746185774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H3">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I3">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J3">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>963.747819110946</v>
+        <v>977.812067687442</v>
       </c>
       <c r="R3">
-        <v>963.747819110946</v>
+        <v>8800.308609186979</v>
       </c>
       <c r="S3">
-        <v>0.02387912528209933</v>
+        <v>0.02356769202875063</v>
       </c>
       <c r="T3">
-        <v>0.02387912528209933</v>
+        <v>0.02356769202875063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H4">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I4">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J4">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>1066.703865874023</v>
+        <v>1079.655390604964</v>
       </c>
       <c r="R4">
-        <v>1066.703865874023</v>
+        <v>9716.89851544468</v>
       </c>
       <c r="S4">
-        <v>0.02643010416937001</v>
+        <v>0.02602236828917085</v>
       </c>
       <c r="T4">
-        <v>0.02643010416937001</v>
+        <v>0.02602236828917084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H5">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I5">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J5">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>918.4533387959601</v>
+        <v>961.7814879881604</v>
       </c>
       <c r="R5">
-        <v>918.4533387959601</v>
+        <v>8656.033391893443</v>
       </c>
       <c r="S5">
-        <v>0.02275684770223731</v>
+        <v>0.02318131536407259</v>
       </c>
       <c r="T5">
-        <v>0.02275684770223731</v>
+        <v>0.02318131536407259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H6">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I6">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J6">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>154.8009180589965</v>
+        <v>172.2007244895764</v>
       </c>
       <c r="R6">
-        <v>154.8009180589965</v>
+        <v>1549.806520406188</v>
       </c>
       <c r="S6">
-        <v>0.003835557853220138</v>
+        <v>0.004150463852932663</v>
       </c>
       <c r="T6">
-        <v>0.003835557853220138</v>
+        <v>0.004150463852932662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>724.1098893530127</v>
+        <v>788.0323219131127</v>
       </c>
       <c r="R7">
-        <v>724.1098893530127</v>
+        <v>7092.290897218016</v>
       </c>
       <c r="S7">
-        <v>0.01794153037027743</v>
+        <v>0.01899353023477524</v>
       </c>
       <c r="T7">
-        <v>0.01794153037027743</v>
+        <v>0.01899353023477523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>3510.99989902576</v>
+        <v>3542.809916066677</v>
       </c>
       <c r="R8">
-        <v>3510.99989902576</v>
+        <v>31885.2892446001</v>
       </c>
       <c r="S8">
-        <v>0.08699330342621785</v>
+        <v>0.08539049146297997</v>
       </c>
       <c r="T8">
-        <v>0.08699330342621785</v>
+        <v>0.08539049146297997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>3886.075891542886</v>
+        <v>3911.808772023436</v>
       </c>
       <c r="R9">
-        <v>3886.075891542886</v>
+        <v>35206.27894821092</v>
       </c>
       <c r="S9">
-        <v>0.09628669578261927</v>
+        <v>0.09428427758357634</v>
       </c>
       <c r="T9">
-        <v>0.09628669578261927</v>
+        <v>0.09428427758357634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>3345.988977435252</v>
+        <v>3484.727899495507</v>
       </c>
       <c r="R10">
-        <v>3345.988977435252</v>
+        <v>31362.55109545956</v>
       </c>
       <c r="S10">
-        <v>0.08290476865452898</v>
+        <v>0.0839905710445344</v>
       </c>
       <c r="T10">
-        <v>0.08290476865452898</v>
+        <v>0.0839905710445344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>563.9504410766025</v>
+        <v>623.9178820101736</v>
       </c>
       <c r="R11">
-        <v>563.9504410766025</v>
+        <v>5615.260938091562</v>
       </c>
       <c r="S11">
-        <v>0.01397320229246931</v>
+        <v>0.01503796586313596</v>
       </c>
       <c r="T11">
-        <v>0.01397320229246931</v>
+        <v>0.01503796586313596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H12">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>711.6950438684457</v>
+        <v>774.2048143789737</v>
       </c>
       <c r="R12">
-        <v>711.6950438684457</v>
+        <v>6967.843329410764</v>
       </c>
       <c r="S12">
-        <v>0.01763392329215469</v>
+        <v>0.01866025306438754</v>
       </c>
       <c r="T12">
-        <v>0.01763392329215469</v>
+        <v>0.01866025306438753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H13">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>3450.80389578973</v>
+        <v>3480.644660347843</v>
       </c>
       <c r="R13">
-        <v>3450.80389578973</v>
+        <v>31325.80194313059</v>
       </c>
       <c r="S13">
-        <v>0.08550180546974948</v>
+        <v>0.08389215487041267</v>
       </c>
       <c r="T13">
-        <v>0.08550180546974948</v>
+        <v>0.08389215487041266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H14">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>3819.449220033245</v>
+        <v>3843.168738152808</v>
       </c>
       <c r="R14">
-        <v>3819.449220033245</v>
+        <v>34588.51864337528</v>
       </c>
       <c r="S14">
-        <v>0.09463586285251137</v>
+        <v>0.09262988280510746</v>
       </c>
       <c r="T14">
-        <v>0.09463586285251137</v>
+        <v>0.09262988280510745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H15">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>3288.622082218507</v>
+        <v>3423.581801873877</v>
       </c>
       <c r="R15">
-        <v>3288.622082218507</v>
+        <v>30812.23621686489</v>
       </c>
       <c r="S15">
-        <v>0.08148336852187869</v>
+        <v>0.08251679868568566</v>
       </c>
       <c r="T15">
-        <v>0.08148336852187869</v>
+        <v>0.08251679868568564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H16">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>554.2815252257568</v>
+        <v>612.9700706396508</v>
       </c>
       <c r="R16">
-        <v>554.2815252257568</v>
+        <v>5516.730635756858</v>
       </c>
       <c r="S16">
-        <v>0.01373363209748053</v>
+        <v>0.01477409650081612</v>
       </c>
       <c r="T16">
-        <v>0.01373363209748053</v>
+        <v>0.01477409650081611</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H17">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>679.9373333667903</v>
+        <v>738.6467802888856</v>
       </c>
       <c r="R17">
-        <v>679.9373333667903</v>
+        <v>6647.821022599971</v>
       </c>
       <c r="S17">
-        <v>0.01684705111179402</v>
+        <v>0.01780321639622188</v>
       </c>
       <c r="T17">
-        <v>0.01684705111179402</v>
+        <v>0.01780321639622188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H18">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>3296.819921804473</v>
+        <v>3320.78401470279</v>
       </c>
       <c r="R18">
-        <v>3296.819921804473</v>
+        <v>29887.05613232511</v>
       </c>
       <c r="S18">
-        <v>0.08168648933277342</v>
+        <v>0.08003911747336946</v>
       </c>
       <c r="T18">
-        <v>0.08168648933277342</v>
+        <v>0.08003911747336946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H19">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>3649.015319094051</v>
+        <v>3666.657920256621</v>
       </c>
       <c r="R19">
-        <v>3649.015319094051</v>
+        <v>32999.92128230959</v>
       </c>
       <c r="S19">
-        <v>0.0904129609769997</v>
+        <v>0.08837553502869</v>
       </c>
       <c r="T19">
-        <v>0.0904129609769997</v>
+        <v>0.08837553502869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H20">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>3141.875088634339</v>
+        <v>3266.341965385794</v>
       </c>
       <c r="R20">
-        <v>3141.875088634339</v>
+        <v>29397.07768847215</v>
       </c>
       <c r="S20">
-        <v>0.07784736564324145</v>
+        <v>0.07872692927881021</v>
       </c>
       <c r="T20">
-        <v>0.07784736564324145</v>
+        <v>0.07872692927881021</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H21">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>529.5480212254263</v>
+        <v>584.8172998699521</v>
       </c>
       <c r="R21">
-        <v>529.5480212254263</v>
+        <v>5263.355698829569</v>
       </c>
       <c r="S21">
-        <v>0.01312080120025055</v>
+        <v>0.01409554501512474</v>
       </c>
       <c r="T21">
-        <v>0.01312080120025055</v>
+        <v>0.01409554501512474</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H22">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>114.5819332977094</v>
+        <v>128.7166652457953</v>
       </c>
       <c r="R22">
-        <v>114.5819332977094</v>
+        <v>1158.449987212158</v>
       </c>
       <c r="S22">
-        <v>0.002839037646596399</v>
+        <v>0.003102390352632026</v>
       </c>
       <c r="T22">
-        <v>0.002839037646596399</v>
+        <v>0.003102390352632026</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H23">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>555.5747299596804</v>
+        <v>578.6801699818077</v>
       </c>
       <c r="R23">
-        <v>555.5747299596804</v>
+        <v>5208.121529836269</v>
       </c>
       <c r="S23">
-        <v>0.01376567429487326</v>
+        <v>0.01394762498844077</v>
       </c>
       <c r="T23">
-        <v>0.01376567429487326</v>
+        <v>0.01394762498844077</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H24">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>614.926125359858</v>
+        <v>638.9521929655356</v>
       </c>
       <c r="R24">
-        <v>614.926125359858</v>
+        <v>5750.56973668982</v>
       </c>
       <c r="S24">
-        <v>0.01523624510014437</v>
+        <v>0.01540032998418678</v>
       </c>
       <c r="T24">
-        <v>0.01523624510014437</v>
+        <v>0.01540032998418678</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H25">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>529.4636787379236</v>
+        <v>569.1930927694896</v>
       </c>
       <c r="R25">
-        <v>529.4636787379236</v>
+        <v>5122.737834925406</v>
       </c>
       <c r="S25">
-        <v>0.01311871141619528</v>
+        <v>0.01371896293631282</v>
       </c>
       <c r="T25">
-        <v>0.01311871141619528</v>
+        <v>0.01371896293631282</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H26">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>89.2385710688046</v>
+        <v>101.9103238869736</v>
       </c>
       <c r="R26">
-        <v>89.2385710688046</v>
+        <v>917.192914982762</v>
       </c>
       <c r="S26">
-        <v>0.00221109607336211</v>
+        <v>0.002456291149687626</v>
       </c>
       <c r="T26">
-        <v>0.00221109607336211</v>
+        <v>0.002456291149687626</v>
       </c>
     </row>
   </sheetData>
